--- a/Code/Results/Cases/Case_1_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.156309415483282</v>
+        <v>6.215492537586345</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.677044760220761</v>
+        <v>4.064204902707336</v>
       </c>
       <c r="E2">
-        <v>29.94204119744464</v>
+        <v>16.53398874325575</v>
       </c>
       <c r="F2">
-        <v>19.20533904496448</v>
+        <v>22.02924588375378</v>
       </c>
       <c r="G2">
-        <v>2.053290857612814</v>
+        <v>3.606149635419113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.41281051780213</v>
+        <v>18.33330853334726</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.71223592671195</v>
+        <v>10.95075768655988</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.37572881059848</v>
+        <v>17.16838657490608</v>
       </c>
       <c r="O2">
-        <v>14.67387274116751</v>
+        <v>19.50962468359262</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.734316271147931</v>
+        <v>6.097650727729514</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.571783890462036</v>
+        <v>4.027265270322727</v>
       </c>
       <c r="E3">
-        <v>27.7642239696921</v>
+        <v>15.59360508834405</v>
       </c>
       <c r="F3">
-        <v>18.40904041394797</v>
+        <v>21.95246083352328</v>
       </c>
       <c r="G3">
-        <v>2.059163451367899</v>
+        <v>3.60830338140574</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.7049942881042</v>
+        <v>18.43199165608033</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.64396720376338</v>
+        <v>10.40684809081244</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.54750568921922</v>
+        <v>17.22190143745738</v>
       </c>
       <c r="O3">
-        <v>14.27996907164742</v>
+        <v>19.51857935414288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.460556708628022</v>
+        <v>6.025040847459481</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.504991454121268</v>
+        <v>4.004080442784298</v>
       </c>
       <c r="E4">
-        <v>26.36377118901878</v>
+        <v>14.99119597541937</v>
       </c>
       <c r="F4">
-        <v>17.92463337284482</v>
+        <v>21.91259646262687</v>
       </c>
       <c r="G4">
-        <v>2.062864957630102</v>
+        <v>3.609694608971342</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.88925838428101</v>
+        <v>18.49563387082981</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.95395007068445</v>
+        <v>10.05583208996558</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.65574471037253</v>
+        <v>17.25644739765533</v>
       </c>
       <c r="O4">
-        <v>14.05026026165638</v>
+        <v>19.52980250078911</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.345335556628099</v>
+        <v>5.995427612837357</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.477255663318275</v>
+        <v>3.994510051356479</v>
       </c>
       <c r="E5">
-        <v>25.77683429783411</v>
+        <v>14.73968927372237</v>
       </c>
       <c r="F5">
-        <v>17.72862288969954</v>
+        <v>21.89819316180543</v>
       </c>
       <c r="G5">
-        <v>2.06439841900044</v>
+        <v>3.610278910209348</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.9655973809121</v>
+        <v>18.52233774066834</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.66421606264978</v>
+        <v>9.908591338360681</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.70056350378804</v>
+        <v>17.27095068193547</v>
       </c>
       <c r="O5">
-        <v>13.95972682032165</v>
+        <v>19.53581179088993</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.325982836593158</v>
+        <v>5.990510083995349</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.472619722265542</v>
+        <v>3.992913629774495</v>
       </c>
       <c r="E6">
-        <v>25.67838361979809</v>
+        <v>14.69757208222217</v>
       </c>
       <c r="F6">
-        <v>17.69616722839733</v>
+        <v>21.89591300018574</v>
       </c>
       <c r="G6">
-        <v>2.064654591151998</v>
+        <v>3.610376983524037</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>11.97834967990394</v>
+        <v>18.52681841477794</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.615591044895</v>
+        <v>9.883891469188551</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.70804896273888</v>
+        <v>17.27338467615893</v>
       </c>
       <c r="O6">
-        <v>13.94487993105314</v>
+        <v>19.53689621624626</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.459017586516922</v>
+        <v>6.024641517314153</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.504619457862492</v>
+        <v>4.003951862989574</v>
       </c>
       <c r="E7">
-        <v>26.35592173746658</v>
+        <v>14.98782804902727</v>
       </c>
       <c r="F7">
-        <v>17.92198393117545</v>
+        <v>21.91239474550287</v>
       </c>
       <c r="G7">
-        <v>2.062885535651691</v>
+        <v>3.609702418674287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.89028282263901</v>
+        <v>18.49599089150456</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.95007716708118</v>
+        <v>10.05386322029593</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.65634625640762</v>
+        <v>17.25664126955509</v>
       </c>
       <c r="O7">
-        <v>14.04902682631458</v>
+        <v>19.52987773660884</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.013858965915805</v>
+        <v>6.174937143137135</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.641214588037476</v>
+        <v>4.051575216457238</v>
       </c>
       <c r="E8">
-        <v>29.20405312762439</v>
+        <v>16.21508082142385</v>
       </c>
       <c r="F8">
-        <v>18.92997939115167</v>
+        <v>22.00126622920677</v>
       </c>
       <c r="G8">
-        <v>2.055296486915207</v>
+        <v>3.606877999673726</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.51256315380375</v>
+        <v>18.36670264138089</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.3509823996085</v>
+        <v>10.76680556501608</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.43439211732917</v>
+        <v>17.18648893259389</v>
       </c>
       <c r="O8">
-        <v>14.53554688609516</v>
+        <v>19.51152201757706</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.985000129283702</v>
+        <v>6.465947717850471</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.890880067838246</v>
+        <v>4.140784035996422</v>
       </c>
       <c r="E9">
-        <v>34.30350529129731</v>
+        <v>18.51239503973919</v>
       </c>
       <c r="F9">
-        <v>20.93301543348952</v>
+        <v>22.23272834179156</v>
       </c>
       <c r="G9">
-        <v>2.041124792358372</v>
+        <v>3.60188264383834</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.8091341224743</v>
+        <v>18.13727489994499</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>19.82762863069024</v>
+        <v>12.02644235361654</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.02040240269534</v>
+        <v>17.06225786094262</v>
       </c>
       <c r="O9">
-        <v>15.5849671846616</v>
+        <v>19.52108195871286</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.626823525502582</v>
+        <v>6.675304082294837</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.061964710535696</v>
+        <v>4.20353876552366</v>
       </c>
       <c r="E10">
-        <v>37.77876454784612</v>
+        <v>20.15899490220449</v>
       </c>
       <c r="F10">
-        <v>22.41057429815778</v>
+        <v>22.43667276882572</v>
       </c>
       <c r="G10">
-        <v>2.031071164213046</v>
+        <v>3.598539959742358</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>10.3131407553301</v>
+        <v>17.98327244270785</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>21.48383791609665</v>
+        <v>12.86423670263255</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.72818341193001</v>
+        <v>16.97904173080366</v>
       </c>
       <c r="O10">
-        <v>16.41287496774683</v>
+        <v>19.55599683003284</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.903250474130727</v>
+        <v>6.769149396379895</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.136889076196645</v>
+        <v>4.231433579599829</v>
       </c>
       <c r="E11">
-        <v>39.30705546578866</v>
+        <v>20.86580858018392</v>
       </c>
       <c r="F11">
-        <v>23.08271468670305</v>
+        <v>22.53655120927201</v>
       </c>
       <c r="G11">
-        <v>2.026556719795408</v>
+        <v>3.597089564258371</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>10.09157749114566</v>
+        <v>17.91634460326802</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.20251482045962</v>
+        <v>13.2258628014715</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.59759933882818</v>
+        <v>16.94291824867474</v>
       </c>
       <c r="O11">
-        <v>16.80174986704323</v>
+        <v>19.5779415094599</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.005695760956069</v>
+        <v>6.80445260873687</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.164826964816406</v>
+        <v>4.241898770508691</v>
       </c>
       <c r="E12">
-        <v>39.87879817874914</v>
+        <v>21.12742418035783</v>
       </c>
       <c r="F12">
-        <v>23.33718181654914</v>
+        <v>22.57536851996653</v>
       </c>
       <c r="G12">
-        <v>2.024853972697883</v>
+        <v>3.596550371013197</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>10.00822407758004</v>
+        <v>17.89144849912289</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.46974136018717</v>
+        <v>13.35996951501159</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.54846748823011</v>
+        <v>16.92948712518849</v>
       </c>
       <c r="O12">
-        <v>16.95077559144448</v>
+        <v>19.58712164409046</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.983731504816513</v>
+        <v>6.796860353536592</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.158829611085358</v>
+        <v>4.239649326053041</v>
       </c>
       <c r="E13">
-        <v>39.75596396724557</v>
+        <v>21.071348650697</v>
       </c>
       <c r="F13">
-        <v>23.28238075032208</v>
+        <v>22.566964677078</v>
       </c>
       <c r="G13">
-        <v>2.025220417675105</v>
+        <v>3.596666050277767</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.02615197169403</v>
+        <v>17.89679042468549</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.41240682944422</v>
+        <v>13.33121365681836</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.55903512501359</v>
+        <v>16.9323687413188</v>
       </c>
       <c r="O13">
-        <v>16.91860135324795</v>
+        <v>19.58510587251786</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.91172340546165</v>
+        <v>6.772058688674691</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.139196339367448</v>
+        <v>4.232296543823728</v>
       </c>
       <c r="E14">
-        <v>39.35422956350769</v>
+        <v>20.88745269977489</v>
       </c>
       <c r="F14">
-        <v>23.10365117058726</v>
+        <v>22.53972493722998</v>
       </c>
       <c r="G14">
-        <v>2.026416508447821</v>
+        <v>3.597045003607128</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>10.08470919541507</v>
+        <v>17.91428741758501</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.22459784146353</v>
+        <v>13.23695277413288</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.59355098865506</v>
+        <v>16.94180829631951</v>
       </c>
       <c r="O14">
-        <v>16.81397478895155</v>
+        <v>19.57867933776465</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.867325890320792</v>
+        <v>6.756835513093054</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.12711335384969</v>
+        <v>4.22777987342916</v>
       </c>
       <c r="E15">
-        <v>39.10726398851661</v>
+        <v>20.77402560618524</v>
       </c>
       <c r="F15">
-        <v>22.99416571249539</v>
+        <v>22.52316864964315</v>
       </c>
       <c r="G15">
-        <v>2.027149976962288</v>
+        <v>3.597278429322744</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>10.12064739544238</v>
+        <v>17.92506312041461</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.10892108262073</v>
+        <v>13.17884550305826</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.61473368040268</v>
+        <v>16.94762257111765</v>
       </c>
       <c r="O15">
-        <v>16.75011861207602</v>
+        <v>19.57485615736659</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.608445850522136</v>
+        <v>6.669140125628703</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.057008332049433</v>
+        <v>4.201702286282367</v>
       </c>
       <c r="E16">
-        <v>37.67787620644059</v>
+        <v>20.11195601327193</v>
       </c>
       <c r="F16">
-        <v>22.36664229008388</v>
+        <v>22.4302862457624</v>
       </c>
       <c r="G16">
-        <v>2.031367239091424</v>
+        <v>3.598636154488881</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>10.32769914510666</v>
+        <v>17.98770912970222</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>21.43617764243165</v>
+        <v>12.84020861484655</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.73676294321148</v>
+        <v>16.98143725097023</v>
       </c>
       <c r="O16">
-        <v>16.38770769477417</v>
+        <v>19.55468456642986</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.445652136251178</v>
+        <v>6.614960656856948</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.013245135514167</v>
+        <v>4.185534408762158</v>
       </c>
       <c r="E17">
-        <v>36.78790634014773</v>
+        <v>19.69500491714664</v>
       </c>
       <c r="F17">
-        <v>21.98162014181282</v>
+        <v>22.37510744102739</v>
       </c>
       <c r="G17">
-        <v>2.033968345149801</v>
+        <v>3.599487017107873</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>10.45573448824909</v>
+        <v>18.02694040586605</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.01462145362296</v>
+        <v>12.62744982575251</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.81221137505136</v>
+        <v>17.00262434128723</v>
       </c>
       <c r="O17">
-        <v>16.16851715844715</v>
+        <v>19.54386176726349</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.350554239783833</v>
+        <v>6.583668942755646</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.987801372914408</v>
+        <v>4.176173884442648</v>
       </c>
       <c r="E18">
-        <v>36.27102777241323</v>
+        <v>19.45120852203443</v>
       </c>
       <c r="F18">
-        <v>21.76016536692787</v>
+        <v>22.34404032358751</v>
       </c>
       <c r="G18">
-        <v>2.035470098608891</v>
+        <v>3.599983022430456</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>10.52976212135666</v>
+        <v>18.04979979279821</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>20.76887799249639</v>
+        <v>12.50324336625255</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.85582958163261</v>
+        <v>17.0149736733358</v>
       </c>
       <c r="O18">
-        <v>16.04359684835635</v>
+        <v>19.53820749561705</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.318104357172148</v>
+        <v>6.573052992484478</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.979140320355439</v>
+        <v>4.17299418999562</v>
       </c>
       <c r="E19">
-        <v>36.09514773559881</v>
+        <v>19.36797914319819</v>
       </c>
       <c r="F19">
-        <v>21.68518701661851</v>
+        <v>22.33363740469738</v>
       </c>
       <c r="G19">
-        <v>2.035979588804827</v>
+        <v>3.600152098574467</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>10.55489384345789</v>
+        <v>18.05759024295731</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.68510889459822</v>
+        <v>12.46087537975127</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.8706367225035</v>
+        <v>17.0191829844923</v>
       </c>
       <c r="O19">
-        <v>16.00149902763625</v>
+        <v>19.53639110607866</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.463133231798636</v>
+        <v>6.620741768063812</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.017932114998246</v>
+        <v>4.187261869940768</v>
       </c>
       <c r="E20">
-        <v>36.88315776871978</v>
+        <v>19.73980144921946</v>
       </c>
       <c r="F20">
-        <v>22.02260698466561</v>
+        <v>22.38091212906565</v>
       </c>
       <c r="G20">
-        <v>2.033690878352303</v>
+        <v>3.599395757453215</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>10.44206531429554</v>
+        <v>18.02273369378362</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.05983533961078</v>
+        <v>12.65028833766728</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.80415689866514</v>
+        <v>17.00035206864645</v>
       </c>
       <c r="O20">
-        <v>16.19173113062023</v>
+        <v>19.54495481321228</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.932934454799634</v>
+        <v>6.779350148409524</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.14497502225124</v>
+        <v>4.234458925358024</v>
       </c>
       <c r="E21">
-        <v>39.47241338144863</v>
+        <v>20.94163103890711</v>
       </c>
       <c r="F21">
-        <v>23.15615017352183</v>
+        <v>22.5476991082673</v>
       </c>
       <c r="G21">
-        <v>2.026065018281159</v>
+        <v>3.596933423787688</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>10.0674949562471</v>
+        <v>17.90913598249226</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.27989476449429</v>
+        <v>13.26471658260845</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.58340439283671</v>
+        <v>16.93902894591341</v>
       </c>
       <c r="O21">
-        <v>16.84465805089562</v>
+        <v>19.58054336817629</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.22697263377135</v>
+        <v>6.881631853337661</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.225466429432145</v>
+        <v>4.264732056103289</v>
       </c>
       <c r="E22">
-        <v>41.12423252772401</v>
+        <v>21.69190935595179</v>
       </c>
       <c r="F22">
-        <v>23.89665583031031</v>
+        <v>22.66249315943162</v>
       </c>
       <c r="G22">
-        <v>2.021119633496325</v>
+        <v>3.59538264179451</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>9.825866054291401</v>
+        <v>17.837503833814</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.04863844349747</v>
+        <v>13.64975714334403</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.44097018191596</v>
+        <v>16.90039614520993</v>
       </c>
       <c r="O22">
-        <v>17.28170122690302</v>
+        <v>19.6088730594827</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.071227016177415</v>
+        <v>6.827178929686176</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.182744118525106</v>
+        <v>4.248628466653047</v>
       </c>
       <c r="E23">
-        <v>40.24611272995162</v>
+        <v>21.29468023737045</v>
       </c>
       <c r="F23">
-        <v>23.50147092204256</v>
+        <v>22.60070481305698</v>
       </c>
       <c r="G23">
-        <v>2.023756165957149</v>
+        <v>3.596204989356694</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>9.954550166240828</v>
+        <v>17.87549701274947</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.64093659836835</v>
+        <v>13.44577402554357</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.51682861862581</v>
+        <v>16.92088326849718</v>
       </c>
       <c r="O23">
-        <v>17.04749218694151</v>
+        <v>19.59328979076383</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.455234718395674</v>
+        <v>6.618128571192631</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.01581401399576</v>
+        <v>4.186481088093973</v>
       </c>
       <c r="E24">
-        <v>36.8401109092629</v>
+        <v>19.719561666235</v>
       </c>
       <c r="F24">
-        <v>22.00407714089645</v>
+        <v>22.37828578443331</v>
       </c>
       <c r="G24">
-        <v>2.033816301207983</v>
+        <v>3.599436994653037</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>10.44824384181622</v>
+        <v>18.02463459870427</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.03940469133618</v>
+        <v>12.63996892672794</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.80779757248058</v>
+        <v>17.00137883784714</v>
       </c>
       <c r="O24">
-        <v>16.1812326824381</v>
+        <v>19.54445887795617</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.734857078711864</v>
+        <v>6.387851014552985</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.825424003979013</v>
+        <v>4.117123186935047</v>
       </c>
       <c r="E25">
-        <v>32.97354915080404</v>
+        <v>17.86834494980866</v>
       </c>
       <c r="F25">
-        <v>20.38950875367368</v>
+        <v>22.16407985233093</v>
       </c>
       <c r="G25">
-        <v>2.044889869846185</v>
+        <v>3.603176249711677</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.99563108879618</v>
+        <v>18.19677475506023</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.18650259419181</v>
+        <v>11.70087971030472</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.13022396331643</v>
+        <v>17.09444554941775</v>
       </c>
       <c r="O25">
-        <v>15.29100310662306</v>
+        <v>19.51360242145768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_202/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.215492537586345</v>
+        <v>7.156309415483237</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.064204902707336</v>
+        <v>3.677044760220822</v>
       </c>
       <c r="E2">
-        <v>16.53398874325575</v>
+        <v>29.94204119744457</v>
       </c>
       <c r="F2">
-        <v>22.02924588375378</v>
+        <v>19.20533904496438</v>
       </c>
       <c r="G2">
-        <v>3.606149635419113</v>
+        <v>2.053290857612546</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.33330853334726</v>
+        <v>11.41281051780206</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.95075768655988</v>
+        <v>17.71223592671195</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.16838657490608</v>
+        <v>11.37572881059842</v>
       </c>
       <c r="O2">
-        <v>19.50962468359262</v>
+        <v>14.67387274116739</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.097650727729514</v>
+        <v>6.734316271147901</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.027265270322727</v>
+        <v>3.57178389046213</v>
       </c>
       <c r="E3">
-        <v>15.59360508834405</v>
+        <v>27.76422396969217</v>
       </c>
       <c r="F3">
-        <v>21.95246083352328</v>
+        <v>18.40904041394778</v>
       </c>
       <c r="G3">
-        <v>3.60830338140574</v>
+        <v>2.059163451368168</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.43199165608033</v>
+        <v>11.7049942881041</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.40684809081244</v>
+        <v>16.64396720376345</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.22190143745738</v>
+        <v>11.54750568921908</v>
       </c>
       <c r="O3">
-        <v>19.51857935414288</v>
+        <v>14.27996907164726</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.025040847459481</v>
+        <v>6.460556708628065</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.004080442784298</v>
+        <v>3.504991454121195</v>
       </c>
       <c r="E4">
-        <v>14.99119597541937</v>
+        <v>26.36377118901877</v>
       </c>
       <c r="F4">
-        <v>21.91259646262687</v>
+        <v>17.92463337284471</v>
       </c>
       <c r="G4">
-        <v>3.609694608971342</v>
+        <v>2.062864957630101</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.49563387082981</v>
+        <v>11.88925838428091</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.05583208996558</v>
+        <v>15.95395007068459</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.25644739765533</v>
+        <v>11.65574471037247</v>
       </c>
       <c r="O4">
-        <v>19.52980250078911</v>
+        <v>14.05026026165621</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.995427612837357</v>
+        <v>6.345335556628105</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.994510051356479</v>
+        <v>3.477255663318243</v>
       </c>
       <c r="E5">
-        <v>14.73968927372237</v>
+        <v>25.77683429783415</v>
       </c>
       <c r="F5">
-        <v>21.89819316180543</v>
+        <v>17.72862288969947</v>
       </c>
       <c r="G5">
-        <v>3.610278910209348</v>
+        <v>2.064398419000442</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.52233774066834</v>
+        <v>11.9655973809121</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.908591338360681</v>
+        <v>15.66421606264984</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.27095068193547</v>
+        <v>11.70056350378804</v>
       </c>
       <c r="O5">
-        <v>19.53581179088993</v>
+        <v>13.9597268203216</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.990510083995349</v>
+        <v>6.325982836593198</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.992913629774495</v>
+        <v>3.472619722265611</v>
       </c>
       <c r="E6">
-        <v>14.69757208222217</v>
+        <v>25.67838361979812</v>
       </c>
       <c r="F6">
-        <v>21.89591300018574</v>
+        <v>17.69616722839726</v>
       </c>
       <c r="G6">
-        <v>3.610376983524037</v>
+        <v>2.064654591151867</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.52681841477794</v>
+        <v>11.97834967990384</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.883891469188551</v>
+        <v>15.61559104489498</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.27338467615893</v>
+        <v>11.70804896273885</v>
       </c>
       <c r="O6">
-        <v>19.53689621624626</v>
+        <v>13.94487993105311</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.024641517314153</v>
+        <v>6.459017586516939</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.003951862989574</v>
+        <v>3.50461945786256</v>
       </c>
       <c r="E7">
-        <v>14.98782804902727</v>
+        <v>26.35592173746665</v>
       </c>
       <c r="F7">
-        <v>21.91239474550287</v>
+        <v>17.92198393117529</v>
       </c>
       <c r="G7">
-        <v>3.609702418674287</v>
+        <v>2.062885535651826</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.49599089150456</v>
+        <v>11.89028282263898</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.05386322029593</v>
+        <v>15.95007716708124</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.25664126955509</v>
+        <v>11.65634625640759</v>
       </c>
       <c r="O7">
-        <v>19.52987773660884</v>
+        <v>14.04902682631449</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.174937143137135</v>
+        <v>7.013858965915815</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.051575216457238</v>
+        <v>3.64121458803733</v>
       </c>
       <c r="E8">
-        <v>16.21508082142385</v>
+        <v>29.20405312762434</v>
       </c>
       <c r="F8">
-        <v>22.00126622920677</v>
+        <v>18.92997939115169</v>
       </c>
       <c r="G8">
-        <v>3.606877999673726</v>
+        <v>2.055296486915207</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.36670264138089</v>
+        <v>11.51256315380372</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.76680556501608</v>
+        <v>17.3509823996085</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.18648893259389</v>
+        <v>11.43439211732914</v>
       </c>
       <c r="O8">
-        <v>19.51152201757706</v>
+        <v>14.53554688609514</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.465947717850471</v>
+        <v>7.985000129283717</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.140784035996422</v>
+        <v>3.890880067838358</v>
       </c>
       <c r="E9">
-        <v>18.51239503973919</v>
+        <v>34.30350529129736</v>
       </c>
       <c r="F9">
-        <v>22.23272834179156</v>
+        <v>20.93301543348951</v>
       </c>
       <c r="G9">
-        <v>3.60188264383834</v>
+        <v>2.041124792358104</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.13727489994499</v>
+        <v>10.80913412247419</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.02644235361654</v>
+        <v>19.82762863069023</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.06225786094262</v>
+        <v>11.02040240269531</v>
       </c>
       <c r="O9">
-        <v>19.52108195871286</v>
+        <v>15.58496718466159</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.675304082294837</v>
+        <v>8.626823525502605</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.20353876552366</v>
+        <v>4.061964710535799</v>
       </c>
       <c r="E10">
-        <v>20.15899490220449</v>
+        <v>37.77876454784614</v>
       </c>
       <c r="F10">
-        <v>22.43667276882572</v>
+        <v>22.41057429815773</v>
       </c>
       <c r="G10">
-        <v>3.598539959742358</v>
+        <v>2.03107116421318</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.98327244270785</v>
+        <v>10.31314075533006</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.86423670263255</v>
+        <v>21.48383791609674</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.97904173080366</v>
+        <v>10.72818341192998</v>
       </c>
       <c r="O10">
-        <v>19.55599683003284</v>
+        <v>16.41287496774675</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.769149396379895</v>
+        <v>8.903250474130727</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.231433579599829</v>
+        <v>4.136889076196663</v>
       </c>
       <c r="E11">
-        <v>20.86580858018392</v>
+        <v>39.30705546578859</v>
       </c>
       <c r="F11">
-        <v>22.53655120927201</v>
+        <v>23.08271468670305</v>
       </c>
       <c r="G11">
-        <v>3.597089564258371</v>
+        <v>2.026556719795409</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.91634460326802</v>
+        <v>10.0915774911456</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.2258628014715</v>
+        <v>22.20251482045972</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.94291824867474</v>
+        <v>10.59759933882814</v>
       </c>
       <c r="O11">
-        <v>19.5779415094599</v>
+        <v>16.80174986704318</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.80445260873687</v>
+        <v>9.005695760956108</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.241898770508691</v>
+        <v>4.164826964816362</v>
       </c>
       <c r="E12">
-        <v>21.12742418035783</v>
+        <v>39.87879817874917</v>
       </c>
       <c r="F12">
-        <v>22.57536851996653</v>
+        <v>23.33718181654914</v>
       </c>
       <c r="G12">
-        <v>3.596550371013197</v>
+        <v>2.024853972697883</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.89144849912289</v>
+        <v>10.00822407757998</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.35996951501159</v>
+        <v>22.46974136018726</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.92948712518849</v>
+        <v>10.54846748823011</v>
       </c>
       <c r="O12">
-        <v>19.58712164409046</v>
+        <v>16.95077559144447</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.796860353536592</v>
+        <v>8.983731504816529</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.239649326053041</v>
+        <v>4.158829611085259</v>
       </c>
       <c r="E13">
-        <v>21.071348650697</v>
+        <v>39.75596396724554</v>
       </c>
       <c r="F13">
-        <v>22.566964677078</v>
+        <v>23.28238075032205</v>
       </c>
       <c r="G13">
-        <v>3.596666050277767</v>
+        <v>2.025220417675104</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.89679042468549</v>
+        <v>10.02615197169403</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.33121365681836</v>
+        <v>22.41240682944425</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.9323687413188</v>
+        <v>10.5590351250136</v>
       </c>
       <c r="O13">
-        <v>19.58510587251786</v>
+        <v>16.91860135324793</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.772058688674691</v>
+        <v>8.911723405461618</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.232296543823728</v>
+        <v>4.139196339367385</v>
       </c>
       <c r="E14">
-        <v>20.88745269977489</v>
+        <v>39.35422956350762</v>
       </c>
       <c r="F14">
-        <v>22.53972493722998</v>
+        <v>23.10365117058722</v>
       </c>
       <c r="G14">
-        <v>3.597045003607128</v>
+        <v>2.026416508447552</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.91428741758501</v>
+        <v>10.08470919541497</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.23695277413288</v>
+        <v>22.22459784146361</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.94180829631951</v>
+        <v>10.59355098865503</v>
       </c>
       <c r="O14">
-        <v>19.57867933776465</v>
+        <v>16.8139747889515</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.756835513093054</v>
+        <v>8.867325890320799</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.22777987342916</v>
+        <v>4.127113353849691</v>
       </c>
       <c r="E15">
-        <v>20.77402560618524</v>
+        <v>39.1072639885168</v>
       </c>
       <c r="F15">
-        <v>22.52316864964315</v>
+        <v>22.99416571249536</v>
       </c>
       <c r="G15">
-        <v>3.597278429322744</v>
+        <v>2.027149976962555</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.92506312041461</v>
+        <v>10.12064739544225</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.17884550305826</v>
+        <v>22.1089210826208</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.94762257111765</v>
+        <v>10.61473368040255</v>
       </c>
       <c r="O15">
-        <v>19.57485615736659</v>
+        <v>16.75011861207596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.669140125628703</v>
+        <v>8.608445850522111</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.201702286282367</v>
+        <v>4.057008332049355</v>
       </c>
       <c r="E16">
-        <v>20.11195601327193</v>
+        <v>37.67787620644049</v>
       </c>
       <c r="F16">
-        <v>22.4302862457624</v>
+        <v>22.36664229008388</v>
       </c>
       <c r="G16">
-        <v>3.598636154488881</v>
+        <v>2.031367239091557</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.98770912970222</v>
+        <v>10.32769914510662</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.84020861484655</v>
+        <v>21.43617764243166</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.98143725097023</v>
+        <v>10.73676294321146</v>
       </c>
       <c r="O16">
-        <v>19.55468456642986</v>
+        <v>16.38770769477416</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.614960656856948</v>
+        <v>8.445652136251145</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.185534408762158</v>
+        <v>4.01324513551423</v>
       </c>
       <c r="E17">
-        <v>19.69500491714664</v>
+        <v>36.78790634014778</v>
       </c>
       <c r="F17">
-        <v>22.37510744102739</v>
+        <v>21.98162014181275</v>
       </c>
       <c r="G17">
-        <v>3.599487017107873</v>
+        <v>2.033968345149936</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.02694040586605</v>
+        <v>10.45573448824905</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.62744982575251</v>
+        <v>21.01462145362304</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.00262434128723</v>
+        <v>10.8122113750513</v>
       </c>
       <c r="O17">
-        <v>19.54386176726349</v>
+        <v>16.16851715844706</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.583668942755646</v>
+        <v>8.350554239783857</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.176173884442648</v>
+        <v>3.987801372914479</v>
       </c>
       <c r="E18">
-        <v>19.45120852203443</v>
+        <v>36.27102777241338</v>
       </c>
       <c r="F18">
-        <v>22.34404032358751</v>
+        <v>21.76016536692783</v>
       </c>
       <c r="G18">
-        <v>3.599983022430456</v>
+        <v>2.035470098608626</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.04979979279821</v>
+        <v>10.52976212135662</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.50324336625255</v>
+        <v>20.76887799249641</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.0149736733358</v>
+        <v>10.85582958163258</v>
       </c>
       <c r="O18">
-        <v>19.53820749561705</v>
+        <v>16.04359684835633</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.573052992484478</v>
+        <v>8.318104357172166</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.17299418999562</v>
+        <v>3.979140320355336</v>
       </c>
       <c r="E19">
-        <v>19.36797914319819</v>
+        <v>36.09514773559887</v>
       </c>
       <c r="F19">
-        <v>22.33363740469738</v>
+        <v>21.68518701661846</v>
       </c>
       <c r="G19">
-        <v>3.600152098574467</v>
+        <v>2.035979588804692</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.05759024295731</v>
+        <v>10.55489384345786</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.46087537975127</v>
+        <v>20.68510889459831</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.0191829844923</v>
+        <v>10.87063672250347</v>
       </c>
       <c r="O19">
-        <v>19.53639110607866</v>
+        <v>16.00149902763618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.620741768063812</v>
+        <v>8.463133231798627</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.187261869940768</v>
+        <v>4.017932114998322</v>
       </c>
       <c r="E20">
-        <v>19.73980144921946</v>
+        <v>36.88315776871974</v>
       </c>
       <c r="F20">
-        <v>22.38091212906565</v>
+        <v>22.02260698466563</v>
       </c>
       <c r="G20">
-        <v>3.599395757453215</v>
+        <v>2.033690878352437</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.02273369378362</v>
+        <v>10.44206531429554</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.65028833766728</v>
+        <v>21.05983533961074</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.00035206864645</v>
+        <v>10.80415689866514</v>
       </c>
       <c r="O20">
-        <v>19.54495481321228</v>
+        <v>16.19173113062023</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.779350148409524</v>
+        <v>8.932934454799629</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.234458925358024</v>
+        <v>4.144975022251285</v>
       </c>
       <c r="E21">
-        <v>20.94163103890711</v>
+        <v>39.47241338144864</v>
       </c>
       <c r="F21">
-        <v>22.5476991082673</v>
+        <v>23.15615017352181</v>
       </c>
       <c r="G21">
-        <v>3.596933423787688</v>
+        <v>2.026065018281026</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.90913598249226</v>
+        <v>10.067494956247</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.26471658260845</v>
+        <v>22.27989476449431</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.93902894591341</v>
+        <v>10.58340439283664</v>
       </c>
       <c r="O21">
-        <v>19.58054336817629</v>
+        <v>16.84465805089558</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.881631853337661</v>
+        <v>9.226972633771291</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.264732056103289</v>
+        <v>4.225466429432151</v>
       </c>
       <c r="E22">
-        <v>21.69190935595179</v>
+        <v>41.12423252772396</v>
       </c>
       <c r="F22">
-        <v>22.66249315943162</v>
+        <v>23.89665583031028</v>
       </c>
       <c r="G22">
-        <v>3.59538264179451</v>
+        <v>2.021119633496324</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.837503833814</v>
+        <v>9.825866054291497</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.64975714334403</v>
+        <v>23.04863844349747</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.90039614520993</v>
+        <v>10.44097018191599</v>
       </c>
       <c r="O22">
-        <v>19.6088730594827</v>
+        <v>17.28170122690299</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.827178929686176</v>
+        <v>9.071227016177346</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.248628466653047</v>
+        <v>4.182744118525148</v>
       </c>
       <c r="E23">
-        <v>21.29468023737045</v>
+        <v>40.24611272995173</v>
       </c>
       <c r="F23">
-        <v>22.60070481305698</v>
+        <v>23.50147092204251</v>
       </c>
       <c r="G23">
-        <v>3.596204989356694</v>
+        <v>2.02375616595715</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.87549701274947</v>
+        <v>9.954550166240725</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.44577402554357</v>
+        <v>22.64093659836832</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.92088326849718</v>
+        <v>10.51682861862568</v>
       </c>
       <c r="O23">
-        <v>19.59328979076383</v>
+        <v>17.04749218694146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.618128571192631</v>
+        <v>8.455234718395657</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.186481088093973</v>
+        <v>4.015814013995818</v>
       </c>
       <c r="E24">
-        <v>19.719561666235</v>
+        <v>36.84011090926288</v>
       </c>
       <c r="F24">
-        <v>22.37828578443331</v>
+        <v>22.0040771408964</v>
       </c>
       <c r="G24">
-        <v>3.599436994653037</v>
+        <v>2.033816301207982</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.02463459870427</v>
+        <v>10.44824384181622</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.63996892672794</v>
+        <v>21.03940469133624</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.00137883784714</v>
+        <v>10.80779757248052</v>
       </c>
       <c r="O24">
-        <v>19.54445887795617</v>
+        <v>16.18123268243806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.387851014552985</v>
+        <v>7.734857078711848</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.117123186935047</v>
+        <v>3.825424003979014</v>
       </c>
       <c r="E25">
-        <v>17.86834494980866</v>
+        <v>32.97354915080402</v>
       </c>
       <c r="F25">
-        <v>22.16407985233093</v>
+        <v>20.38950875367362</v>
       </c>
       <c r="G25">
-        <v>3.603176249711677</v>
+        <v>2.044889869846585</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.19677475506023</v>
+        <v>10.99563108879618</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.70087971030472</v>
+        <v>19.18650259419185</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.09444554941775</v>
+        <v>11.13022396331644</v>
       </c>
       <c r="O25">
-        <v>19.51360242145768</v>
+        <v>15.29100310662299</v>
       </c>
     </row>
   </sheetData>
